--- a/data/trans_orig/P1498-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{956141AB-0651-43DD-9D41-CDDD19D2C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CBD6AC-A81D-44BF-B3E5-CA44E87EE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBB632CF-8FC4-4EA7-808E-A0EB124578C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFC4A8D6-3A6D-4AB2-B05D-E133BA5CD71F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F114C-6C16-4E2C-8E01-74840C8DA9B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5507F-0597-498A-BEE8-80189E947EEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF30662-B599-47C3-935E-BE54407246E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A686142E-498F-4F64-9B93-1FA9562E1D81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P1498-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CBD6AC-A81D-44BF-B3E5-CA44E87EE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E293AB-9C1E-46C6-87EA-8714D2B78ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFC4A8D6-3A6D-4AB2-B05D-E133BA5CD71F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88BE755F-C022-42B8-94DD-35E20D1F06C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +126,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5507F-0597-498A-BEE8-80189E947EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CA64E-B6AA-4148-8FC0-8B3D60BF790A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A686142E-498F-4F64-9B93-1FA9562E1D81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FF7992-E4A5-4F0B-9121-6D0F91583356}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
